--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Relevance" sheetId="1" r:id="rId1"/>
     <sheet name="Completeness" sheetId="2" r:id="rId2"/>
     <sheet name="Clarity" sheetId="3" r:id="rId3"/>
-    <sheet name="Singularity " sheetId="4" r:id="rId4"/>
+    <sheet name="Singularity" sheetId="4" r:id="rId4"/>
     <sheet name="Time Savings" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,34 +20,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
   <si>
-    <t>P3_MO_Sheet1</t>
+    <t>P10_ Diane_Sheet1</t>
+  </si>
+  <si>
+    <t>P9_ Pouya_Sheet1</t>
+  </si>
+  <si>
+    <t>P8_ Negin_Sheet1</t>
+  </si>
+  <si>
+    <t>P7_ Jia_Sheet1</t>
+  </si>
+  <si>
+    <t>P6_ Baharin_Sheet1</t>
   </si>
   <si>
     <t>P5_ Delaram_Sheet1</t>
   </si>
   <si>
-    <t>P6_ Baharin_Sheet1</t>
+    <t>P4_Armina_Sheet1</t>
   </si>
   <si>
-    <t>P7_ Jia_Sheet1</t>
-  </si>
-  <si>
-    <t>P8_ Negin_Sheet1</t>
-  </si>
-  <si>
-    <t>P10_ Diane_Sheet1</t>
+    <t>P3_MO_Sheet1</t>
   </si>
   <si>
     <t>P2_Dipeeka_Sheet1</t>
   </si>
   <si>
     <t>P1_Parham_Sheet1</t>
-  </si>
-  <si>
-    <t>P4_Armina_Sheet1</t>
-  </si>
-  <si>
-    <t>P9_ Pouya_Sheet1</t>
   </si>
   <si>
     <t>Average</t>
@@ -505,28 +505,28 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>2</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
       </c>
       <c r="L2">
         <v>4.3</v>
@@ -537,19 +537,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -590,16 +590,16 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -619,25 +619,25 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -651,20 +651,20 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
       <c r="G6">
         <v>5</v>
       </c>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>4.4</v>
@@ -695,31 +695,31 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>4.8</v>
@@ -771,13 +771,13 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -803,10 +803,10 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>4.8</v>
@@ -856,16 +856,16 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -935,13 +935,13 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>5</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -955,37 +955,37 @@
         <v>24</v>
       </c>
       <c r="B14">
+        <v>4.75</v>
+      </c>
+      <c r="C14">
         <v>4.666666666666667</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
       <c r="D14">
-        <v>4.416666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="E14">
         <v>4.833333333333333</v>
       </c>
       <c r="F14">
-        <v>4.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="G14">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>4.666666666666667</v>
       </c>
       <c r="I14">
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="J14">
         <v>4.666666666666667</v>
       </c>
       <c r="K14">
-        <v>4.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="L14">
-        <v>4.691666666666666</v>
+        <v>4.675</v>
       </c>
     </row>
   </sheetData>
@@ -1044,31 +1044,31 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
       <c r="J2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1085,28 +1085,28 @@
         <v>5</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1138,16 +1138,16 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>3</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
       </c>
       <c r="L4">
         <v>4.6</v>
@@ -1158,34 +1158,34 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>4.5</v>
@@ -1217,13 +1217,13 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>4.9</v>
@@ -1240,13 +1240,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1310,19 +1310,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1351,19 +1351,19 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
       <c r="G10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -1392,25 +1392,25 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1424,28 +1424,28 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1480,16 +1480,16 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
         <v>3</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
       </c>
       <c r="L13">
         <v>4.6</v>
@@ -1500,34 +1500,34 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>4.583333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D14">
-        <v>4.333333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="E14">
         <v>4.666666666666667</v>
       </c>
       <c r="F14">
-        <v>4.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="H14">
-        <v>4.916666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="I14">
         <v>4.5</v>
       </c>
       <c r="J14">
-        <v>4.583333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="K14">
-        <v>4.916666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="L14">
         <v>4.691666666666667</v>
@@ -1607,13 +1607,13 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1665,7 +1665,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1683,16 +1683,16 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>4.7</v>
@@ -1820,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1835,16 +1835,16 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>4.8</v>
@@ -1893,7 +1893,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1908,16 +1908,16 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1990,13 +1990,13 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <v>4.8</v>
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -2034,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>4.9</v>
@@ -2048,7 +2048,7 @@
         <v>4.916666666666667</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2060,16 +2060,16 @@
         <v>5</v>
       </c>
       <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
         <v>4.916666666666667</v>
       </c>
-      <c r="H14">
+      <c r="I14">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="J14">
         <v>4.75</v>
-      </c>
-      <c r="I14">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="J14">
-        <v>4.916666666666667</v>
       </c>
       <c r="K14">
         <v>4.833333333333333</v>
@@ -2140,25 +2140,25 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -2172,28 +2172,28 @@
         <v>13</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -2210,31 +2210,31 @@
         <v>14</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
       <c r="I4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -2248,22 +2248,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2286,34 +2286,34 @@
         <v>16</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>4.4</v>
@@ -2324,7 +2324,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2345,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -2365,31 +2365,31 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>4.6</v>
@@ -2438,10 +2438,10 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -2453,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -2465,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>4.7</v>
@@ -2497,13 +2497,13 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>4.9</v>
@@ -2552,7 +2552,7 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2579,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13">
         <v>4.8</v>
@@ -2590,28 +2590,28 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>4.166666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D14">
-        <v>4.833333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="E14">
         <v>4.916666666666667</v>
       </c>
       <c r="F14">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="G14">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>4.833333333333333</v>
       </c>
       <c r="I14">
-        <v>4.75</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J14">
         <v>4.833333333333333</v>
@@ -2679,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2697,16 +2697,16 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
         <v>3</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
       </c>
       <c r="L2">
         <v>4.6</v>
@@ -2717,28 +2717,28 @@
         <v>13</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -2755,10 +2755,10 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -2773,16 +2773,16 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>3</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
       </c>
       <c r="L4">
         <v>4.3</v>
@@ -2793,19 +2793,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2814,13 +2814,13 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>4.6</v>
@@ -2831,34 +2831,34 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>4.5</v>
@@ -2875,13 +2875,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2899,7 +2899,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2907,34 +2907,34 @@
         <v>18</v>
       </c>
       <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>4.3</v>
@@ -2951,13 +2951,13 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2983,22 +2983,22 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -3010,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>4.5</v>
@@ -3027,28 +3027,28 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>4.5</v>
@@ -3059,28 +3059,28 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -3097,10 +3097,10 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3135,19 +3135,19 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>4.083333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="C14">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="D14">
-        <v>4.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>4.916666666666667</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="G14">
         <v>4.75</v>
@@ -3156,16 +3156,16 @@
         <v>4.75</v>
       </c>
       <c r="I14">
-        <v>4.333333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="J14">
         <v>4.75</v>
       </c>
       <c r="K14">
-        <v>4.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="L14">
-        <v>4.575</v>
+        <v>4.566666666666666</v>
       </c>
     </row>
   </sheetData>
